--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H2">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N2">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O2">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P2">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q2">
-        <v>5.943903381268445</v>
+        <v>3.093330043593555</v>
       </c>
       <c r="R2">
-        <v>53.495130431416</v>
+        <v>27.839970392342</v>
       </c>
       <c r="S2">
-        <v>0.03852755810448008</v>
+        <v>0.02668930631494234</v>
       </c>
       <c r="T2">
-        <v>0.03852755810448008</v>
+        <v>0.02668930631494234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H3">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q3">
-        <v>0.04026916437777778</v>
+        <v>0.02663129047777777</v>
       </c>
       <c r="R3">
-        <v>0.3624224794</v>
+        <v>0.2396816143</v>
       </c>
       <c r="S3">
-        <v>0.0002610191436275676</v>
+        <v>0.0002297752451587442</v>
       </c>
       <c r="T3">
-        <v>0.0002610191436275676</v>
+        <v>0.0002297752451587442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H4">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N4">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q4">
-        <v>0.08794953038977778</v>
+        <v>0.07911748819533332</v>
       </c>
       <c r="R4">
-        <v>0.791545773508</v>
+        <v>0.7120573937579999</v>
       </c>
       <c r="S4">
-        <v>0.0005700766693200839</v>
+        <v>0.0006826270871701189</v>
       </c>
       <c r="T4">
-        <v>0.0005700766693200839</v>
+        <v>0.0006826270871701189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>230.774651</v>
       </c>
       <c r="I5">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J5">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N5">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O5">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P5">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q5">
-        <v>127.3590425785318</v>
+        <v>100.2223795755812</v>
       </c>
       <c r="R5">
-        <v>1146.231383206786</v>
+        <v>902.001416180231</v>
       </c>
       <c r="S5">
-        <v>0.8255236665755165</v>
+        <v>0.8647204631930214</v>
       </c>
       <c r="T5">
-        <v>0.8255236665755165</v>
+        <v>0.8647204631930213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>230.774651</v>
       </c>
       <c r="I6">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J6">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.03365</v>
       </c>
       <c r="O6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q6">
         <v>0.8628407784611112</v>
@@ -821,10 +821,10 @@
         <v>7.76556700615</v>
       </c>
       <c r="S6">
-        <v>0.005592814367043279</v>
+        <v>0.00744460549402588</v>
       </c>
       <c r="T6">
-        <v>0.005592814367043278</v>
+        <v>0.00744460549402588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>230.774651</v>
       </c>
       <c r="I7">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J7">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N7">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q7">
-        <v>1.884480158438111</v>
+        <v>2.563367898424334</v>
       </c>
       <c r="R7">
-        <v>16.960321425943</v>
+        <v>23.070311085819</v>
       </c>
       <c r="S7">
-        <v>0.01221493926529307</v>
+        <v>0.02211678355519385</v>
       </c>
       <c r="T7">
-        <v>0.01221493926529307</v>
+        <v>0.02211678355519385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H8">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I8">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J8">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N8">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O8">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P8">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q8">
-        <v>17.64707884990845</v>
+        <v>8.631512245629333</v>
       </c>
       <c r="R8">
-        <v>158.823709649176</v>
+        <v>77.68361021066399</v>
       </c>
       <c r="S8">
-        <v>0.1143859198497094</v>
+        <v>0.07447284028481967</v>
       </c>
       <c r="T8">
-        <v>0.1143859198497094</v>
+        <v>0.07447284028481967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H9">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I9">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J9">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.03365</v>
       </c>
       <c r="O9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q9">
-        <v>0.1195566403777778</v>
+        <v>0.07431095506666666</v>
       </c>
       <c r="R9">
-        <v>1.0760097634</v>
+        <v>0.6687985956</v>
       </c>
       <c r="S9">
-        <v>0.0007749495766447471</v>
+        <v>0.0006411562343428935</v>
       </c>
       <c r="T9">
-        <v>0.0007749495766447471</v>
+        <v>0.0006411562343428937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H10">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N10">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q10">
-        <v>0.2611166767097778</v>
+        <v>0.220766474504</v>
       </c>
       <c r="R10">
-        <v>2.350050090388</v>
+        <v>1.986898270536</v>
       </c>
       <c r="S10">
-        <v>0.001692522116979269</v>
+        <v>0.001904777045795683</v>
       </c>
       <c r="T10">
-        <v>0.001692522116979269</v>
+        <v>0.001904777045795683</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H11">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I11">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J11">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N11">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O11">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P11">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q11">
-        <v>0.06894534456600002</v>
+        <v>0.1230156383865555</v>
       </c>
       <c r="R11">
-        <v>0.6205081010940001</v>
+        <v>1.107140745479</v>
       </c>
       <c r="S11">
-        <v>0.0004468941701123521</v>
+        <v>0.001061381103263339</v>
       </c>
       <c r="T11">
-        <v>0.0004468941701123522</v>
+        <v>0.001061381103263339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H12">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I12">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J12">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.03365</v>
       </c>
       <c r="O12">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P12">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q12">
-        <v>0.0004670956500000001</v>
+        <v>0.001059073927777778</v>
       </c>
       <c r="R12">
-        <v>0.00420386085</v>
+        <v>0.009531665349999999</v>
       </c>
       <c r="S12">
-        <v>3.027649280511098E-06</v>
+        <v>9.137708576286727E-06</v>
       </c>
       <c r="T12">
-        <v>3.027649280511098E-06</v>
+        <v>9.137708576286727E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H13">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I13">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J13">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N13">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O13">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P13">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q13">
-        <v>0.001020156333</v>
+        <v>0.003146346552333333</v>
       </c>
       <c r="R13">
-        <v>0.009181406997000001</v>
+        <v>0.028317118971</v>
       </c>
       <c r="S13">
-        <v>6.612511993242263E-06</v>
+        <v>2.714673368983084E-05</v>
       </c>
       <c r="T13">
-        <v>6.612511993242264E-06</v>
+        <v>2.714673368983084E-05</v>
       </c>
     </row>
   </sheetData>
